--- a/SIPA/controlador/Reportes.xlsx
+++ b/SIPA/controlador/Reportes.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
     <sheet name="convenio" sheetId="2" r:id="rId5"/>
+    <sheet name="practica" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -33,7 +34,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -43,6 +44,9 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -51,7 +55,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -402,4 +406,32 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/SIPA/controlador/Reportes.xlsx
+++ b/SIPA/controlador/Reportes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="convenio" sheetId="1" r:id="rId4"/>
@@ -404,15 +404,16 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:ZF1"/>
+  <dimension ref="A1:ZF7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="682" max="682" width="9.1" customWidth="true" style="0"/>
+    <col min="682" max="682" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:682">
@@ -434,6 +435,66 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:682">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:682">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:682">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:682">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:682">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:682">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -459,13 +520,13 @@
   </sheetPr>
   <dimension ref="A1:ZE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="681" max="681" width="9.10" bestFit="true" style="0"/>
+    <col min="681" max="681" width="9.1" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:681">

--- a/SIPA/controlador/Reportes.xlsx
+++ b/SIPA/controlador/Reportes.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="convenio" sheetId="1" r:id="rId4"/>
     <sheet name="practica" sheetId="2" r:id="rId5"/>
+    <sheet name="practicas_internas" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'convenio'!$D$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'practica'!$B$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'practicas_internas'!$B$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Id convenio</t>
   </si>
@@ -46,6 +48,24 @@
   </si>
   <si>
     <t>Salario</t>
+  </si>
+  <si>
+    <t>Cod. Práctica</t>
+  </si>
+  <si>
+    <t>Cod. estudiante</t>
+  </si>
+  <si>
+    <t>Cod. docente</t>
+  </si>
+  <si>
+    <t>Cod. responsable</t>
+  </si>
+  <si>
+    <t>Cod. prórroga</t>
+  </si>
+  <si>
+    <t>Cod. dependencia</t>
   </si>
 </sst>
 </file>
@@ -406,14 +426,13 @@
   </sheetPr>
   <dimension ref="A1:ZF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="682" max="682" width="9.1" customWidth="true" style="0"/>
-    <col min="682" max="682" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:682">
@@ -561,4 +580,66 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:ZI1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="685" max="685" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:685">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <autoFilter ref="B1:D1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/SIPA/controlador/Reportes.xlsx
+++ b/SIPA/controlador/Reportes.xlsx
@@ -21,24 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Id convenio</t>
   </si>
   <si>
-    <t>Nombre</t>
+    <t>Fecha inicial</t>
+  </si>
+  <si>
+    <t>Fecha fin</t>
   </si>
   <si>
     <t>NIT empresa</t>
   </si>
   <si>
-    <t>Fecha inicial</t>
-  </si>
-  <si>
-    <t>Fecha fin</t>
-  </si>
-  <si>
-    <t>Fecha prorroga</t>
+    <t>Razón</t>
+  </si>
+  <si>
+    <t>Id prorroga</t>
+  </si>
+  <si>
+    <t>2011-10-10</t>
+  </si>
+  <si>
+    <t>2016-10-10</t>
+  </si>
+  <si>
+    <t>Oportunidad de practica</t>
   </si>
   <si>
     <t>Id Práctica</t>
@@ -66,6 +75,12 @@
   </si>
   <si>
     <t>Cod. dependencia</t>
+  </si>
+  <si>
+    <t>2015-07-15</t>
+  </si>
+  <si>
+    <t>2015-12-15</t>
   </si>
 </sst>
 </file>
@@ -459,11 +474,21 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:682">
       <c r="A3">
@@ -550,16 +575,16 @@
   <sheetData>
     <row r="1" spans="1:681">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -587,7 +612,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:ZI1"/>
+  <dimension ref="A1:ZI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I1" sqref="I1"/>
@@ -595,36 +620,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col min="685" max="685" width="9.1" customWidth="true" style="0"/>
     <col min="685" max="685" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:685">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:685">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>500000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
